--- a/canadian_cf_gms_collaborators.xlsx
+++ b/canadian_cf_gms_collaborators.xlsx
@@ -336,7 +336,7 @@
     <t xml:space="preserve">REB support</t>
   </si>
   <si>
-    <t xml:space="preserve">Liz Tullis</t>
+    <t xml:space="preserve">Elizabeth Tullis</t>
   </si>
   <si>
     <t xml:space="preserve">E Tullis</t>
@@ -1145,8 +1145,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="20.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
